--- a/data/performance/performance_by_product_group.xlsx
+++ b/data/performance/performance_by_product_group.xlsx
@@ -1098,16 +1098,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="12.8571428571429"/>
   </cols>
   <sheetData>
@@ -1125,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:4">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:4">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:4">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:4">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:4">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:4">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:4">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:4">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:4">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:4">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:4">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:4">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:4">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:4">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:4">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:4">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:4">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:4">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:4">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:4">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:4">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:4">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:4">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:4">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:4">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:4">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1853,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:4">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:4">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:4">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:4">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:4">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:4">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:4">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:4">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:4">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:4">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:4">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:4">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:4">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:4">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>816.494669210076</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:4">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>19064.8049735797</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:4">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>1718.04989411855</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:4">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>9317.2782020589</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:4">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>12171.7212881877</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:4">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>4375.93053161156</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:4">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>2034.19085303591</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>1109.59542182042</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:4">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:4">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>25908.5835025096</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>2334.78596843419</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>12661.9433374057</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>16541.0586576315</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:4">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>5946.77793644126</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:4">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>2946.67888009099</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:4">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>1124.33600760595</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:4">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:4">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>26252.7699421705</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:4">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>2365.80278067202</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>12830.1528111527</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:4">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>16760.8008170992</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:4">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>6025.77879440785</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:4">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>2896.05193531364</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:4">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>1139.07659339148</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:4">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:4">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>26596.9563818313</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:4">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>2396.81959290985</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:4">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>12998.3622848998</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:4">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>16980.5429765669</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:4">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>6104.77965237445</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:4">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -2639,11 +2640,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D109" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="eBatarapos &amp; CICO"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
